--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11014.55520084748</v>
+        <v>11591.90813973399</v>
       </c>
       <c r="AB2" t="n">
-        <v>15070.60035368078</v>
+        <v>15860.56011567935</v>
       </c>
       <c r="AC2" t="n">
-        <v>13632.28340764536</v>
+        <v>14346.85051867425</v>
       </c>
       <c r="AD2" t="n">
-        <v>11014555.20084748</v>
+        <v>11591908.13973399</v>
       </c>
       <c r="AE2" t="n">
-        <v>15070600.35368078</v>
+        <v>15860560.11567935</v>
       </c>
       <c r="AF2" t="n">
         <v>1.360584587122763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>116</v>
+        <v>115.3666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>13632283.40764536</v>
+        <v>14346850.51867425</v>
       </c>
     </row>
     <row r="3">
@@ -3108,28 +3108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3779.619766875343</v>
+        <v>4082.962441029657</v>
       </c>
       <c r="AB3" t="n">
-        <v>5171.44251009498</v>
+        <v>5586.489339407228</v>
       </c>
       <c r="AC3" t="n">
-        <v>4677.887295096468</v>
+        <v>5053.322637541023</v>
       </c>
       <c r="AD3" t="n">
-        <v>3779619.766875343</v>
+        <v>4082962.441029658</v>
       </c>
       <c r="AE3" t="n">
-        <v>5171442.51009498</v>
+        <v>5586489.339407228</v>
       </c>
       <c r="AF3" t="n">
         <v>2.566728509594271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>4677887.295096468</v>
+        <v>5053322.637541023</v>
       </c>
     </row>
     <row r="4">
@@ -3214,28 +3214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2897.54443929796</v>
+        <v>3151.978672519313</v>
       </c>
       <c r="AB4" t="n">
-        <v>3964.548132486524</v>
+        <v>4312.676275226159</v>
       </c>
       <c r="AC4" t="n">
-        <v>3586.177223000111</v>
+        <v>3901.080504397579</v>
       </c>
       <c r="AD4" t="n">
-        <v>2897544.43929796</v>
+        <v>3151978.672519313</v>
       </c>
       <c r="AE4" t="n">
-        <v>3964548.132486524</v>
+        <v>4312676.275226159</v>
       </c>
       <c r="AF4" t="n">
         <v>3.01460643708291e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3586177.223000111</v>
+        <v>3901080.504397579</v>
       </c>
     </row>
     <row r="5">
@@ -3320,28 +3320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2529.641363538873</v>
+        <v>2774.218744652316</v>
       </c>
       <c r="AB5" t="n">
-        <v>3461.166913494717</v>
+        <v>3795.808476326684</v>
       </c>
       <c r="AC5" t="n">
-        <v>3130.838001048925</v>
+        <v>3433.541842796579</v>
       </c>
       <c r="AD5" t="n">
-        <v>2529641.363538873</v>
+        <v>2774218.744652316</v>
       </c>
       <c r="AE5" t="n">
-        <v>3461166.913494717</v>
+        <v>3795808.476326684</v>
       </c>
       <c r="AF5" t="n">
         <v>3.25455449411425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.22499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>3130838.001048924</v>
+        <v>3433541.842796579</v>
       </c>
     </row>
     <row r="6">
@@ -3426,28 +3426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2312.953049843547</v>
+        <v>2538.021719253855</v>
       </c>
       <c r="AB6" t="n">
-        <v>3164.684403083039</v>
+        <v>3472.633285899158</v>
       </c>
       <c r="AC6" t="n">
-        <v>2862.651365315131</v>
+        <v>3141.210038964238</v>
       </c>
       <c r="AD6" t="n">
-        <v>2312953.049843547</v>
+        <v>2538021.719253855</v>
       </c>
       <c r="AE6" t="n">
-        <v>3164684.403083039</v>
+        <v>3472633.285899158</v>
       </c>
       <c r="AF6" t="n">
         <v>3.405604997834135e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2862651.36531513</v>
+        <v>3141210.038964238</v>
       </c>
     </row>
     <row r="7">
@@ -3532,28 +3532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2149.050601904434</v>
+        <v>2374.152425703668</v>
       </c>
       <c r="AB7" t="n">
-        <v>2940.425842946889</v>
+        <v>3248.420089060774</v>
       </c>
       <c r="AC7" t="n">
-        <v>2659.795727409628</v>
+        <v>2938.39543494692</v>
       </c>
       <c r="AD7" t="n">
-        <v>2149050.601904434</v>
+        <v>2374152.425703668</v>
       </c>
       <c r="AE7" t="n">
-        <v>2940425.842946889</v>
+        <v>3248420.089060774</v>
       </c>
       <c r="AF7" t="n">
         <v>3.511453355802435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.69583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2659795.727409628</v>
+        <v>2938395.43494692</v>
       </c>
     </row>
     <row r="8">
@@ -3638,28 +3638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2037.678852217794</v>
+        <v>2262.746510598247</v>
       </c>
       <c r="AB8" t="n">
-        <v>2788.042101650801</v>
+        <v>3095.989601131428</v>
       </c>
       <c r="AC8" t="n">
-        <v>2521.955276510913</v>
+        <v>2800.512698848023</v>
       </c>
       <c r="AD8" t="n">
-        <v>2037678.852217794</v>
+        <v>2262746.510598247</v>
       </c>
       <c r="AE8" t="n">
-        <v>2788042.101650801</v>
+        <v>3095989.601131428</v>
       </c>
       <c r="AF8" t="n">
         <v>3.578126520786025e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.86666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2521955.276510913</v>
+        <v>2800512.698848023</v>
       </c>
     </row>
     <row r="9">
@@ -3744,28 +3744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2027.47028010547</v>
+        <v>2252.537938485923</v>
       </c>
       <c r="AB9" t="n">
-        <v>2774.074282916302</v>
+        <v>3082.021782396929</v>
       </c>
       <c r="AC9" t="n">
-        <v>2509.320526792479</v>
+        <v>2787.877949129589</v>
       </c>
       <c r="AD9" t="n">
-        <v>2027470.28010547</v>
+        <v>2252537.938485923</v>
       </c>
       <c r="AE9" t="n">
-        <v>2774074.282916302</v>
+        <v>3082021.782396929</v>
       </c>
       <c r="AF9" t="n">
         <v>3.587543634484273e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>2509320.526792479</v>
+        <v>2787877.949129588</v>
       </c>
     </row>
     <row r="10">
@@ -3850,28 +3850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2034.207985040087</v>
+        <v>2259.27564342054</v>
       </c>
       <c r="AB10" t="n">
-        <v>2783.293108054409</v>
+        <v>3091.240607535036</v>
       </c>
       <c r="AC10" t="n">
-        <v>2517.659520198107</v>
+        <v>2796.216942535217</v>
       </c>
       <c r="AD10" t="n">
-        <v>2034207.985040087</v>
+        <v>2259275.64342054</v>
       </c>
       <c r="AE10" t="n">
-        <v>2783293.108054409</v>
+        <v>3091240.607535036</v>
       </c>
       <c r="AF10" t="n">
         <v>3.587543634484273e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>2517659.520198107</v>
+        <v>2796216.942535217</v>
       </c>
     </row>
   </sheetData>
@@ -4147,28 +4147,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6740.375914463855</v>
+        <v>7195.259228262596</v>
       </c>
       <c r="AB2" t="n">
-        <v>9222.479690568394</v>
+        <v>9844.871108543341</v>
       </c>
       <c r="AC2" t="n">
-        <v>8342.29917273174</v>
+        <v>8905.290427306974</v>
       </c>
       <c r="AD2" t="n">
-        <v>6740375.914463855</v>
+        <v>7195259.228262596</v>
       </c>
       <c r="AE2" t="n">
-        <v>9222479.690568395</v>
+        <v>9844871.10854334</v>
       </c>
       <c r="AF2" t="n">
         <v>1.89594631612928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8342299.17273174</v>
+        <v>8905290.427306974</v>
       </c>
     </row>
     <row r="3">
@@ -4253,28 +4253,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2974.247065502583</v>
+        <v>3254.914660018157</v>
       </c>
       <c r="AB3" t="n">
-        <v>4069.49604954074</v>
+        <v>4453.51783453735</v>
       </c>
       <c r="AC3" t="n">
-        <v>3681.109058145996</v>
+        <v>4028.480342960475</v>
       </c>
       <c r="AD3" t="n">
-        <v>2974247.065502583</v>
+        <v>3254914.660018157</v>
       </c>
       <c r="AE3" t="n">
-        <v>4069496.04954074</v>
+        <v>4453517.83453735</v>
       </c>
       <c r="AF3" t="n">
         <v>3.077203303526349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.80833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3681109.058145996</v>
+        <v>4028480.342960475</v>
       </c>
     </row>
     <row r="4">
@@ -4359,28 +4359,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2376.50411623346</v>
+        <v>2618.416359759678</v>
       </c>
       <c r="AB4" t="n">
-        <v>3251.637775792899</v>
+        <v>3582.632779800451</v>
       </c>
       <c r="AC4" t="n">
-        <v>2941.306030173382</v>
+        <v>3240.711335552848</v>
       </c>
       <c r="AD4" t="n">
-        <v>2376504.11623346</v>
+        <v>2618416.359759678</v>
       </c>
       <c r="AE4" t="n">
-        <v>3251637.775792899</v>
+        <v>3582632.779800451</v>
       </c>
       <c r="AF4" t="n">
         <v>3.502966900170163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.02083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2941306.030173382</v>
+        <v>3240711.335552848</v>
       </c>
     </row>
     <row r="5">
@@ -4465,28 +4465,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2075.646432538472</v>
+        <v>2307.911281303507</v>
       </c>
       <c r="AB5" t="n">
-        <v>2839.99102005698</v>
+        <v>3157.786032939427</v>
       </c>
       <c r="AC5" t="n">
-        <v>2568.946263055171</v>
+        <v>2856.411365936101</v>
       </c>
       <c r="AD5" t="n">
-        <v>2075646.432538472</v>
+        <v>2307911.281303507</v>
       </c>
       <c r="AE5" t="n">
-        <v>2839991.02005698</v>
+        <v>3157786.032939427</v>
       </c>
       <c r="AF5" t="n">
         <v>3.737487216230503e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.95</v>
       </c>
       <c r="AH5" t="n">
-        <v>2568946.263055171</v>
+        <v>2856411.365936101</v>
       </c>
     </row>
     <row r="6">
@@ -4571,28 +4571,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1911.092879951988</v>
+        <v>2133.609859759209</v>
       </c>
       <c r="AB6" t="n">
-        <v>2614.841589817769</v>
+        <v>2919.299138346325</v>
       </c>
       <c r="AC6" t="n">
-        <v>2365.284778438781</v>
+        <v>2640.685325844625</v>
       </c>
       <c r="AD6" t="n">
-        <v>1911092.879951988</v>
+        <v>2133609.859759209</v>
       </c>
       <c r="AE6" t="n">
-        <v>2614841.589817769</v>
+        <v>2919299.138346325</v>
       </c>
       <c r="AF6" t="n">
         <v>3.869379133874278e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.38333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2365284.778438781</v>
+        <v>2640685.325844625</v>
       </c>
     </row>
     <row r="7">
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1898.743002206064</v>
+        <v>2121.259982013285</v>
       </c>
       <c r="AB7" t="n">
-        <v>2597.943942247642</v>
+        <v>2902.401490776198</v>
       </c>
       <c r="AC7" t="n">
-        <v>2349.99981863675</v>
+        <v>2625.400366042594</v>
       </c>
       <c r="AD7" t="n">
-        <v>1898743.002206064</v>
+        <v>2121259.982013285</v>
       </c>
       <c r="AE7" t="n">
-        <v>2597943.942247642</v>
+        <v>2902401.490776198</v>
       </c>
       <c r="AF7" t="n">
         <v>3.883804812366566e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.22083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2349999.81863675</v>
+        <v>2625400.366042594</v>
       </c>
     </row>
   </sheetData>
@@ -4974,28 +4974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2255.944451621377</v>
+        <v>2536.50640755683</v>
       </c>
       <c r="AB2" t="n">
-        <v>3086.68272395361</v>
+        <v>3470.559969584454</v>
       </c>
       <c r="AC2" t="n">
-        <v>2792.094056965773</v>
+        <v>3139.334597048693</v>
       </c>
       <c r="AD2" t="n">
-        <v>2255944.451621377</v>
+        <v>2536506.40755683</v>
       </c>
       <c r="AE2" t="n">
-        <v>3086682.72395361</v>
+        <v>3470559.969584454</v>
       </c>
       <c r="AF2" t="n">
         <v>4.215143484294116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.86666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2792094.056965773</v>
+        <v>3139334.597048693</v>
       </c>
     </row>
     <row r="3">
@@ -5080,28 +5080,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1621.094473888847</v>
+        <v>1854.913186544449</v>
       </c>
       <c r="AB3" t="n">
-        <v>2218.052976815447</v>
+        <v>2537.974054824422</v>
       </c>
       <c r="AC3" t="n">
-        <v>2006.365113765085</v>
+        <v>2295.753373100937</v>
       </c>
       <c r="AD3" t="n">
-        <v>1621094.473888848</v>
+        <v>1854913.186544449</v>
       </c>
       <c r="AE3" t="n">
-        <v>2218052.976815447</v>
+        <v>2537974.054824422</v>
       </c>
       <c r="AF3" t="n">
         <v>5.017096536990445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.775</v>
       </c>
       <c r="AH3" t="n">
-        <v>2006365.113765085</v>
+        <v>2295753.373100937</v>
       </c>
     </row>
   </sheetData>
@@ -5377,28 +5377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3364.267555378396</v>
+        <v>3686.539289101412</v>
       </c>
       <c r="AB2" t="n">
-        <v>4603.139290278498</v>
+        <v>5044.085693983818</v>
       </c>
       <c r="AC2" t="n">
-        <v>4163.822136960715</v>
+        <v>4562.685234768546</v>
       </c>
       <c r="AD2" t="n">
-        <v>3364267.555378396</v>
+        <v>3686539.289101412</v>
       </c>
       <c r="AE2" t="n">
-        <v>4603139.290278498</v>
+        <v>5044085.693983817</v>
       </c>
       <c r="AF2" t="n">
         <v>3.131684857612272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.28333333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>4163822.136960715</v>
+        <v>4562685.234768546</v>
       </c>
     </row>
     <row r="3">
@@ -5483,28 +5483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1943.312067690754</v>
+        <v>2180.342155483945</v>
       </c>
       <c r="AB3" t="n">
-        <v>2658.925303892193</v>
+        <v>2983.240327040291</v>
       </c>
       <c r="AC3" t="n">
-        <v>2405.161204713824</v>
+        <v>2698.524057231661</v>
       </c>
       <c r="AD3" t="n">
-        <v>1943312.067690754</v>
+        <v>2180342.155483945</v>
       </c>
       <c r="AE3" t="n">
-        <v>2658925.303892193</v>
+        <v>2983240.32704029</v>
       </c>
       <c r="AF3" t="n">
         <v>4.257118534568384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.7625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2405161.204713824</v>
+        <v>2698524.057231661</v>
       </c>
     </row>
     <row r="4">
@@ -5589,28 +5589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1701.703874032718</v>
+        <v>1929.217226278649</v>
       </c>
       <c r="AB4" t="n">
-        <v>2328.346314328038</v>
+        <v>2639.640120051634</v>
       </c>
       <c r="AC4" t="n">
-        <v>2106.132209943146</v>
+        <v>2387.716571752082</v>
       </c>
       <c r="AD4" t="n">
-        <v>1701703.874032718</v>
+        <v>1929217.226278649</v>
       </c>
       <c r="AE4" t="n">
-        <v>2328346.314328038</v>
+        <v>2639640.120051634</v>
       </c>
       <c r="AF4" t="n">
         <v>4.528637504883162e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.84166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2106132.209943146</v>
+        <v>2387716.571752083</v>
       </c>
     </row>
     <row r="5">
@@ -5695,28 +5695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1709.907245360686</v>
+        <v>1937.420597606618</v>
       </c>
       <c r="AB5" t="n">
-        <v>2339.570528886166</v>
+        <v>2650.864334609762</v>
       </c>
       <c r="AC5" t="n">
-        <v>2116.28520121713</v>
+        <v>2397.869563026067</v>
       </c>
       <c r="AD5" t="n">
-        <v>1709907.245360686</v>
+        <v>1937420.597606618</v>
       </c>
       <c r="AE5" t="n">
-        <v>2339570.528886166</v>
+        <v>2650864.334609762</v>
       </c>
       <c r="AF5" t="n">
         <v>4.527641104992099e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.84583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2116285.20121713</v>
+        <v>2397869.563026067</v>
       </c>
     </row>
   </sheetData>
@@ -5992,28 +5992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1647.521836769786</v>
+        <v>1887.952674513907</v>
       </c>
       <c r="AB2" t="n">
-        <v>2254.212060602113</v>
+        <v>2583.180139863572</v>
       </c>
       <c r="AC2" t="n">
-        <v>2039.073225344744</v>
+        <v>2336.645052831089</v>
       </c>
       <c r="AD2" t="n">
-        <v>1647521.836769786</v>
+        <v>1887952.674513907</v>
       </c>
       <c r="AE2" t="n">
-        <v>2254212.060602113</v>
+        <v>2583180.139863572</v>
       </c>
       <c r="AF2" t="n">
         <v>5.339190112801258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2039073.225344744</v>
+        <v>2336645.052831089</v>
       </c>
     </row>
     <row r="3">
@@ -6098,28 +6098,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1593.188547642963</v>
+        <v>1833.585219968304</v>
       </c>
       <c r="AB3" t="n">
-        <v>2179.870857403251</v>
+        <v>2508.792190031463</v>
       </c>
       <c r="AC3" t="n">
-        <v>1971.827042240648</v>
+        <v>2269.356584526813</v>
       </c>
       <c r="AD3" t="n">
-        <v>1593188.547642963</v>
+        <v>1833585.219968304</v>
       </c>
       <c r="AE3" t="n">
-        <v>2179870.857403251</v>
+        <v>2508792.190031463</v>
       </c>
       <c r="AF3" t="n">
         <v>5.450546786757004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.37083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1971827.042240648</v>
+        <v>2269356.584526813</v>
       </c>
     </row>
   </sheetData>
@@ -6395,28 +6395,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7579.426228924306</v>
+        <v>8064.736002190522</v>
       </c>
       <c r="AB2" t="n">
-        <v>10370.50534710064</v>
+        <v>11034.52758923965</v>
       </c>
       <c r="AC2" t="n">
-        <v>9380.758871868637</v>
+        <v>9981.407763178939</v>
       </c>
       <c r="AD2" t="n">
-        <v>7579426.228924306</v>
+        <v>8064736.002190523</v>
       </c>
       <c r="AE2" t="n">
-        <v>10370505.34710064</v>
+        <v>11034527.58923965</v>
       </c>
       <c r="AF2" t="n">
         <v>1.747984892399499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>9380758.871868636</v>
+        <v>9981407.763178939</v>
       </c>
     </row>
     <row r="3">
@@ -6501,28 +6501,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3172.937324374979</v>
+        <v>3454.394771414471</v>
       </c>
       <c r="AB3" t="n">
-        <v>4341.352827325545</v>
+        <v>4726.455323391214</v>
       </c>
       <c r="AC3" t="n">
-        <v>3927.020206612394</v>
+        <v>4275.369060948287</v>
       </c>
       <c r="AD3" t="n">
-        <v>3172937.324374979</v>
+        <v>3454394.771414471</v>
       </c>
       <c r="AE3" t="n">
-        <v>4341352.827325545</v>
+        <v>4726455.323391214</v>
       </c>
       <c r="AF3" t="n">
         <v>2.934088768995477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.11666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3927020.206612394</v>
+        <v>4275369.060948287</v>
       </c>
     </row>
     <row r="4">
@@ -6607,28 +6607,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2495.318872424753</v>
+        <v>2747.682687756688</v>
       </c>
       <c r="AB4" t="n">
-        <v>3414.205366950936</v>
+        <v>3759.500672593877</v>
       </c>
       <c r="AC4" t="n">
-        <v>3088.358398596337</v>
+        <v>3400.699204893709</v>
       </c>
       <c r="AD4" t="n">
-        <v>2495318.872424753</v>
+        <v>2747682.687756688</v>
       </c>
       <c r="AE4" t="n">
-        <v>3414205.366950936</v>
+        <v>3759500.672593878</v>
       </c>
       <c r="AF4" t="n">
         <v>3.368872862111874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.74583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3088358.398596337</v>
+        <v>3400699.204893709</v>
       </c>
     </row>
     <row r="5">
@@ -6713,28 +6713,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2193.422055235948</v>
+        <v>2426.40217858901</v>
       </c>
       <c r="AB5" t="n">
-        <v>3001.136822925605</v>
+        <v>3319.910506054913</v>
       </c>
       <c r="AC5" t="n">
-        <v>2714.712536667457</v>
+        <v>3003.062906880567</v>
       </c>
       <c r="AD5" t="n">
-        <v>2193422.055235948</v>
+        <v>2426402.17858901</v>
       </c>
       <c r="AE5" t="n">
-        <v>3001136.822925604</v>
+        <v>3319910.506054913</v>
       </c>
       <c r="AF5" t="n">
         <v>3.601347613102879e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.53333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2714712.536667457</v>
+        <v>3003062.906880567</v>
       </c>
     </row>
     <row r="6">
@@ -6819,28 +6819,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1999.746515630121</v>
+        <v>2223.017710284359</v>
       </c>
       <c r="AB6" t="n">
-        <v>2736.141405274962</v>
+        <v>3041.630903830992</v>
       </c>
       <c r="AC6" t="n">
-        <v>2475.007909754101</v>
+        <v>2751.341919325033</v>
       </c>
       <c r="AD6" t="n">
-        <v>1999746.515630121</v>
+        <v>2223017.710284359</v>
       </c>
       <c r="AE6" t="n">
-        <v>2736141.405274963</v>
+        <v>3041630.903830993</v>
       </c>
       <c r="AF6" t="n">
         <v>3.746543781109372e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.72916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2475007.909754101</v>
+        <v>2751341.919325033</v>
       </c>
     </row>
     <row r="7">
@@ -6925,28 +6925,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1933.045668945992</v>
+        <v>2146.574780512476</v>
       </c>
       <c r="AB7" t="n">
-        <v>2644.878364208062</v>
+        <v>2937.03831489288</v>
       </c>
       <c r="AC7" t="n">
-        <v>2392.454885238142</v>
+        <v>2656.731500278669</v>
       </c>
       <c r="AD7" t="n">
-        <v>1933045.668945992</v>
+        <v>2146574.780512476</v>
       </c>
       <c r="AE7" t="n">
-        <v>2644878.364208062</v>
+        <v>2937038.314892881</v>
       </c>
       <c r="AF7" t="n">
         <v>3.800037106164396e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>2392454.885238142</v>
+        <v>2656731.500278668</v>
       </c>
     </row>
     <row r="8">
@@ -7031,28 +7031,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1938.517318414164</v>
+        <v>2152.046429980649</v>
       </c>
       <c r="AB8" t="n">
-        <v>2652.364916402554</v>
+        <v>2944.524867087373</v>
       </c>
       <c r="AC8" t="n">
-        <v>2399.226931398634</v>
+        <v>2663.503546439159</v>
       </c>
       <c r="AD8" t="n">
-        <v>1938517.318414164</v>
+        <v>2152046.429980649</v>
       </c>
       <c r="AE8" t="n">
-        <v>2652364.916402554</v>
+        <v>2944524.867087373</v>
       </c>
       <c r="AF8" t="n">
         <v>3.799634900712854e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.10833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2399226.931398634</v>
+        <v>2663503.54643916</v>
       </c>
     </row>
   </sheetData>
@@ -7328,28 +7328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1578.169569305764</v>
+        <v>1826.252399691453</v>
       </c>
       <c r="AB2" t="n">
-        <v>2159.321228651734</v>
+        <v>2498.759101827475</v>
       </c>
       <c r="AC2" t="n">
-        <v>1953.23864121559</v>
+        <v>2260.281040179486</v>
       </c>
       <c r="AD2" t="n">
-        <v>1578169.569305764</v>
+        <v>1826252.399691453</v>
       </c>
       <c r="AE2" t="n">
-        <v>2159321.228651734</v>
+        <v>2498759.101827475</v>
       </c>
       <c r="AF2" t="n">
         <v>5.702908830726255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.675</v>
       </c>
       <c r="AH2" t="n">
-        <v>1953238.64121559</v>
+        <v>2260281.040179486</v>
       </c>
     </row>
     <row r="3">
@@ -7434,28 +7434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1590.221530578039</v>
+        <v>1838.304360963728</v>
       </c>
       <c r="AB3" t="n">
-        <v>2175.811253759466</v>
+        <v>2515.249126935208</v>
       </c>
       <c r="AC3" t="n">
-        <v>1968.154881470936</v>
+        <v>2275.197280434832</v>
       </c>
       <c r="AD3" t="n">
-        <v>1590221.530578039</v>
+        <v>1838304.360963728</v>
       </c>
       <c r="AE3" t="n">
-        <v>2175811.253759466</v>
+        <v>2515249.126935208</v>
       </c>
       <c r="AF3" t="n">
         <v>5.704350779861711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1968154.881470936</v>
+        <v>2275197.280434832</v>
       </c>
     </row>
   </sheetData>
@@ -7731,28 +7731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4776.910576064967</v>
+        <v>5150.758398398611</v>
       </c>
       <c r="AB2" t="n">
-        <v>6535.979792593625</v>
+        <v>7047.494876112449</v>
       </c>
       <c r="AC2" t="n">
-        <v>5912.195054493495</v>
+        <v>6374.891856357192</v>
       </c>
       <c r="AD2" t="n">
-        <v>4776910.576064968</v>
+        <v>5150758.398398612</v>
       </c>
       <c r="AE2" t="n">
-        <v>6535979.792593624</v>
+        <v>7047494.876112449</v>
       </c>
       <c r="AF2" t="n">
         <v>2.421461341380691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.11666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5912195.054493495</v>
+        <v>6374891.856357193</v>
       </c>
     </row>
     <row r="3">
@@ -7837,28 +7837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2453.591851942064</v>
+        <v>2712.344183453811</v>
       </c>
       <c r="AB3" t="n">
-        <v>3357.112616660295</v>
+        <v>3711.148971981898</v>
       </c>
       <c r="AC3" t="n">
-        <v>3036.71450026326</v>
+        <v>3356.962122726101</v>
       </c>
       <c r="AD3" t="n">
-        <v>2453591.851942064</v>
+        <v>2712344.183453811</v>
       </c>
       <c r="AE3" t="n">
-        <v>3357112.616660295</v>
+        <v>3711148.971981898</v>
       </c>
       <c r="AF3" t="n">
         <v>3.575050364648116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.23333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3036714.50026326</v>
+        <v>3356962.122726101</v>
       </c>
     </row>
     <row r="4">
@@ -7943,28 +7943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1978.067056182496</v>
+        <v>2208.155541569951</v>
       </c>
       <c r="AB4" t="n">
-        <v>2706.478612428474</v>
+        <v>3021.295828923331</v>
       </c>
       <c r="AC4" t="n">
-        <v>2448.17609222489</v>
+        <v>2732.947595426102</v>
       </c>
       <c r="AD4" t="n">
-        <v>1978067.056182496</v>
+        <v>2208155.541569951</v>
       </c>
       <c r="AE4" t="n">
-        <v>2706478.612428474</v>
+        <v>3021295.828923331</v>
       </c>
       <c r="AF4" t="n">
         <v>3.994089112416197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>2448176.092224889</v>
+        <v>2732947.595426102</v>
       </c>
     </row>
     <row r="5">
@@ -8049,28 +8049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1794.967517857191</v>
+        <v>2015.467559461051</v>
       </c>
       <c r="AB5" t="n">
-        <v>2455.953746310261</v>
+        <v>2757.651631007945</v>
       </c>
       <c r="AC5" t="n">
-        <v>2221.560967715141</v>
+        <v>2494.465229732918</v>
       </c>
       <c r="AD5" t="n">
-        <v>1794967.517857191</v>
+        <v>2015467.559461051</v>
       </c>
       <c r="AE5" t="n">
-        <v>2455953.746310261</v>
+        <v>2757651.631007945</v>
       </c>
       <c r="AF5" t="n">
         <v>4.16215278130714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.86666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2221560.967715141</v>
+        <v>2494465.229732919</v>
       </c>
     </row>
     <row r="6">
@@ -8155,28 +8155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1799.545120006345</v>
+        <v>2020.045161610204</v>
       </c>
       <c r="AB6" t="n">
-        <v>2462.217023520287</v>
+        <v>2763.914908217971</v>
       </c>
       <c r="AC6" t="n">
-        <v>2227.226486538807</v>
+        <v>2500.130748556584</v>
       </c>
       <c r="AD6" t="n">
-        <v>1799545.120006345</v>
+        <v>2020045.161610204</v>
       </c>
       <c r="AE6" t="n">
-        <v>2462217.023520287</v>
+        <v>2763914.908217971</v>
       </c>
       <c r="AF6" t="n">
         <v>4.165289969793103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.82916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2227226.486538807</v>
+        <v>2500130.748556585</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5997.149708603547</v>
+        <v>6421.729356836902</v>
       </c>
       <c r="AB2" t="n">
-        <v>8205.564806884178</v>
+        <v>8786.493412729193</v>
       </c>
       <c r="AC2" t="n">
-        <v>7422.43721829738</v>
+        <v>7947.922813338943</v>
       </c>
       <c r="AD2" t="n">
-        <v>5997149.708603547</v>
+        <v>6421729.356836902</v>
       </c>
       <c r="AE2" t="n">
-        <v>8205564.806884178</v>
+        <v>8786493.412729193</v>
       </c>
       <c r="AF2" t="n">
         <v>2.056785724737367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.69166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7422437.21829738</v>
+        <v>7947922.813338944</v>
       </c>
     </row>
     <row r="3">
@@ -8558,28 +8558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2799.315581064532</v>
+        <v>3069.51194778179</v>
       </c>
       <c r="AB3" t="n">
-        <v>3830.147075100161</v>
+        <v>4199.841664265147</v>
       </c>
       <c r="AC3" t="n">
-        <v>3464.603213897639</v>
+        <v>3799.01467034232</v>
       </c>
       <c r="AD3" t="n">
-        <v>2799315.581064532</v>
+        <v>3069511.94778179</v>
       </c>
       <c r="AE3" t="n">
-        <v>3830147.075100161</v>
+        <v>4199841.664265147</v>
       </c>
       <c r="AF3" t="n">
         <v>3.226894592409839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3464603.213897639</v>
+        <v>3799014.67034232</v>
       </c>
     </row>
     <row r="4">
@@ -8664,28 +8664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2239.743443088623</v>
+        <v>2480.885053279107</v>
       </c>
       <c r="AB4" t="n">
-        <v>3064.515789341043</v>
+        <v>3394.456378820701</v>
       </c>
       <c r="AC4" t="n">
-        <v>2772.042703481142</v>
+        <v>3070.494226175374</v>
       </c>
       <c r="AD4" t="n">
-        <v>2239743.443088623</v>
+        <v>2480885.053279107</v>
       </c>
       <c r="AE4" t="n">
-        <v>3064515.789341043</v>
+        <v>3394456.378820701</v>
       </c>
       <c r="AF4" t="n">
         <v>3.655849903986082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.21666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2772042.703481142</v>
+        <v>3070494.226175373</v>
       </c>
     </row>
     <row r="5">
@@ -8770,28 +8770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1969.773607278294</v>
+        <v>2191.6472020207</v>
       </c>
       <c r="AB5" t="n">
-        <v>2695.131149756601</v>
+        <v>2998.708390455504</v>
       </c>
       <c r="AC5" t="n">
-        <v>2437.911615464156</v>
+        <v>2712.515870383977</v>
       </c>
       <c r="AD5" t="n">
-        <v>1969773.607278294</v>
+        <v>2191647.2020207</v>
       </c>
       <c r="AE5" t="n">
-        <v>2695131.149756601</v>
+        <v>2998708.390455504</v>
       </c>
       <c r="AF5" t="n">
         <v>3.880057315362224e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.42916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2437911.615464156</v>
+        <v>2712515.870383977</v>
       </c>
     </row>
     <row r="6">
@@ -8876,28 +8876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1862.376236041385</v>
+        <v>2084.215665365008</v>
       </c>
       <c r="AB6" t="n">
-        <v>2548.185328392637</v>
+        <v>2851.715822458117</v>
       </c>
       <c r="AC6" t="n">
-        <v>2304.990097051413</v>
+        <v>2579.552066771008</v>
       </c>
       <c r="AD6" t="n">
-        <v>1862376.236041385</v>
+        <v>2084215.665365008</v>
       </c>
       <c r="AE6" t="n">
-        <v>2548185.328392637</v>
+        <v>2851715.822458117</v>
       </c>
       <c r="AF6" t="n">
         <v>3.967625115654416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.42916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2304990.097051413</v>
+        <v>2579552.066771008</v>
       </c>
     </row>
     <row r="7">
@@ -8982,28 +8982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1866.431527291464</v>
+        <v>2088.270956615087</v>
       </c>
       <c r="AB7" t="n">
-        <v>2553.733956787818</v>
+        <v>2857.264450853299</v>
       </c>
       <c r="AC7" t="n">
-        <v>2310.009172140108</v>
+        <v>2584.571141859702</v>
       </c>
       <c r="AD7" t="n">
-        <v>1866431.527291464</v>
+        <v>2088270.956615087</v>
       </c>
       <c r="AE7" t="n">
-        <v>2553733.956787819</v>
+        <v>2857264.450853299</v>
       </c>
       <c r="AF7" t="n">
         <v>3.970163312764334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.39583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2310009.172140108</v>
+        <v>2584571.141859702</v>
       </c>
     </row>
   </sheetData>
@@ -9279,28 +9279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9683.31277644283</v>
+        <v>10220.13304951998</v>
       </c>
       <c r="AB2" t="n">
-        <v>13249.13573833944</v>
+        <v>13983.63691880264</v>
       </c>
       <c r="AC2" t="n">
-        <v>11984.65681875062</v>
+        <v>12649.05823742926</v>
       </c>
       <c r="AD2" t="n">
-        <v>9683312.77644283</v>
+        <v>10220133.04951998</v>
       </c>
       <c r="AE2" t="n">
-        <v>13249135.73833944</v>
+        <v>13983636.91880264</v>
       </c>
       <c r="AF2" t="n">
         <v>1.481707227498585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>109</v>
+        <v>108.1333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>11984656.81875062</v>
+        <v>12649058.23742926</v>
       </c>
     </row>
     <row r="3">
@@ -9385,28 +9385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3563.385743525775</v>
+        <v>3865.965296968121</v>
       </c>
       <c r="AB3" t="n">
-        <v>4875.581579776243</v>
+        <v>5289.584273663865</v>
       </c>
       <c r="AC3" t="n">
-        <v>4410.262916723938</v>
+        <v>4784.753774563343</v>
       </c>
       <c r="AD3" t="n">
-        <v>3563385.743525775</v>
+        <v>3865965.296968121</v>
       </c>
       <c r="AE3" t="n">
-        <v>4875581.579776243</v>
+        <v>5289584.273663865</v>
       </c>
       <c r="AF3" t="n">
         <v>2.681147882200917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.76250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>4410262.916723939</v>
+        <v>4784753.774563342</v>
       </c>
     </row>
     <row r="4">
@@ -9491,28 +9491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2762.178844700398</v>
+        <v>3015.911068869964</v>
       </c>
       <c r="AB4" t="n">
-        <v>3779.334954049571</v>
+        <v>4126.502577034098</v>
       </c>
       <c r="AC4" t="n">
-        <v>3418.640530364859</v>
+        <v>3732.674962664549</v>
       </c>
       <c r="AD4" t="n">
-        <v>2762178.844700398</v>
+        <v>3015911.068869964</v>
       </c>
       <c r="AE4" t="n">
-        <v>3779334.95404957</v>
+        <v>4126502.577034098</v>
       </c>
       <c r="AF4" t="n">
         <v>3.124544828296393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.28333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3418640.530364859</v>
+        <v>3732674.962664549</v>
       </c>
     </row>
     <row r="5">
@@ -9597,28 +9597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2413.623243962885</v>
+        <v>2657.625787544604</v>
       </c>
       <c r="AB5" t="n">
-        <v>3302.425803932641</v>
+        <v>3636.280848693661</v>
       </c>
       <c r="AC5" t="n">
-        <v>2987.246920188911</v>
+        <v>3289.239308046425</v>
       </c>
       <c r="AD5" t="n">
-        <v>2413623.243962885</v>
+        <v>2657625.787544603</v>
       </c>
       <c r="AE5" t="n">
-        <v>3302425.803932641</v>
+        <v>3636280.84869366</v>
       </c>
       <c r="AF5" t="n">
         <v>3.362587074292143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>2987246.920188911</v>
+        <v>3289239.308046425</v>
       </c>
     </row>
     <row r="6">
@@ -9703,28 +9703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2207.167518460857</v>
+        <v>2441.407227065804</v>
       </c>
       <c r="AB6" t="n">
-        <v>3019.943972116966</v>
+        <v>3340.441075356885</v>
       </c>
       <c r="AC6" t="n">
-        <v>2731.724757935994</v>
+        <v>3021.634067463192</v>
       </c>
       <c r="AD6" t="n">
-        <v>2207167.518460857</v>
+        <v>2441407.227065804</v>
       </c>
       <c r="AE6" t="n">
-        <v>3019943.972116966</v>
+        <v>3340441.075356884</v>
       </c>
       <c r="AF6" t="n">
         <v>3.511411547959922e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.62916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2731724.757935994</v>
+        <v>3021634.067463192</v>
       </c>
     </row>
     <row r="7">
@@ -9809,28 +9809,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2059.425502967619</v>
+        <v>2283.835056788093</v>
       </c>
       <c r="AB7" t="n">
-        <v>2817.796828601232</v>
+        <v>3124.843880389373</v>
       </c>
       <c r="AC7" t="n">
-        <v>2548.870254082217</v>
+        <v>2826.613166190824</v>
       </c>
       <c r="AD7" t="n">
-        <v>2059425.502967619</v>
+        <v>2283835.056788093</v>
       </c>
       <c r="AE7" t="n">
-        <v>2817796.828601232</v>
+        <v>3124843.880389373</v>
       </c>
       <c r="AF7" t="n">
         <v>3.611781541828889e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.3625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2548870.254082217</v>
+        <v>2826613.166190824</v>
       </c>
     </row>
     <row r="8">
@@ -9915,28 +9915,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1990.340970560376</v>
+        <v>2214.817844188555</v>
       </c>
       <c r="AB8" t="n">
-        <v>2723.272323567174</v>
+        <v>3030.411485286152</v>
       </c>
       <c r="AC8" t="n">
-        <v>2463.367035142634</v>
+        <v>2741.19326633956</v>
       </c>
       <c r="AD8" t="n">
-        <v>1990340.970560376</v>
+        <v>2214817.844188555</v>
       </c>
       <c r="AE8" t="n">
-        <v>2723272.323567174</v>
+        <v>3030411.485286152</v>
       </c>
       <c r="AF8" t="n">
         <v>3.654467631175462e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.84583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2463367.035142635</v>
+        <v>2741193.26633956</v>
       </c>
     </row>
     <row r="9">
@@ -10021,28 +10021,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1994.097972288997</v>
+        <v>2218.574845917175</v>
       </c>
       <c r="AB9" t="n">
-        <v>2728.412819079492</v>
+        <v>3035.55198079847</v>
       </c>
       <c r="AC9" t="n">
-        <v>2468.016928977988</v>
+        <v>2745.843160174913</v>
       </c>
       <c r="AD9" t="n">
-        <v>1994097.972288997</v>
+        <v>2218574.845917176</v>
       </c>
       <c r="AE9" t="n">
-        <v>2728412.819079492</v>
+        <v>3035551.98079847</v>
       </c>
       <c r="AF9" t="n">
         <v>3.656774987356357e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.81666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2468016.928977988</v>
+        <v>2745843.160174913</v>
       </c>
     </row>
   </sheetData>
@@ -10318,28 +10318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3783.248474425076</v>
+        <v>4125.890855198933</v>
       </c>
       <c r="AB2" t="n">
-        <v>5176.407467851803</v>
+        <v>5645.225889541604</v>
       </c>
       <c r="AC2" t="n">
-        <v>4682.378404253343</v>
+        <v>5106.453453767838</v>
       </c>
       <c r="AD2" t="n">
-        <v>3783248.474425076</v>
+        <v>4125890.855198933</v>
       </c>
       <c r="AE2" t="n">
-        <v>5176407.467851803</v>
+        <v>5645225.889541605</v>
       </c>
       <c r="AF2" t="n">
         <v>2.868310703191001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4682378.404253342</v>
+        <v>5106453.453767838</v>
       </c>
     </row>
     <row r="3">
@@ -10424,28 +10424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2110.262377548985</v>
+        <v>2357.707338430785</v>
       </c>
       <c r="AB3" t="n">
-        <v>2887.354083168077</v>
+        <v>3225.919195147966</v>
       </c>
       <c r="AC3" t="n">
-        <v>2611.789061897423</v>
+        <v>2918.041994768948</v>
       </c>
       <c r="AD3" t="n">
-        <v>2110262.377548985</v>
+        <v>2357707.338430785</v>
       </c>
       <c r="AE3" t="n">
-        <v>2887354.083168077</v>
+        <v>3225919.195147966</v>
       </c>
       <c r="AF3" t="n">
         <v>4.001636209181896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.92083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2611789.061897423</v>
+        <v>2918041.994768948</v>
       </c>
     </row>
     <row r="4">
@@ -10530,28 +10530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1750.349808488811</v>
+        <v>1978.755285392195</v>
       </c>
       <c r="AB4" t="n">
-        <v>2394.905827958029</v>
+        <v>2707.420277995714</v>
       </c>
       <c r="AC4" t="n">
-        <v>2166.339377009154</v>
+        <v>2449.027886552028</v>
       </c>
       <c r="AD4" t="n">
-        <v>1750349.808488811</v>
+        <v>1978755.285392195</v>
       </c>
       <c r="AE4" t="n">
-        <v>2394905.827958029</v>
+        <v>2707420.277995714</v>
       </c>
       <c r="AF4" t="n">
         <v>4.376055507057906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.65</v>
       </c>
       <c r="AH4" t="n">
-        <v>2166339.377009154</v>
+        <v>2449027.886552028</v>
       </c>
     </row>
     <row r="5">
@@ -10636,28 +10636,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1741.395085092985</v>
+        <v>1960.247665618239</v>
       </c>
       <c r="AB5" t="n">
-        <v>2382.653580353344</v>
+        <v>2682.097336122427</v>
       </c>
       <c r="AC5" t="n">
-        <v>2155.256466719723</v>
+        <v>2426.121730710156</v>
       </c>
       <c r="AD5" t="n">
-        <v>1741395.085092985</v>
+        <v>1960247.665618239</v>
       </c>
       <c r="AE5" t="n">
-        <v>2382653.580353344</v>
+        <v>2682097.336122427</v>
       </c>
       <c r="AF5" t="n">
         <v>4.393314271108529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.46666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2155256.466719723</v>
+        <v>2426121.730710156</v>
       </c>
     </row>
   </sheetData>
@@ -10933,28 +10933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2601.951902354569</v>
+        <v>2893.312505945059</v>
       </c>
       <c r="AB2" t="n">
-        <v>3560.105382818185</v>
+        <v>3958.757814573362</v>
       </c>
       <c r="AC2" t="n">
-        <v>3220.33392172117</v>
+        <v>3580.939524901819</v>
       </c>
       <c r="AD2" t="n">
-        <v>2601951.90235457</v>
+        <v>2893312.505945059</v>
       </c>
       <c r="AE2" t="n">
-        <v>3560105.382818185</v>
+        <v>3958757.814573362</v>
       </c>
       <c r="AF2" t="n">
         <v>3.789146208763618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.94166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3220333.92172117</v>
+        <v>3580939.524901819</v>
       </c>
     </row>
     <row r="3">
@@ -11039,28 +11039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1663.078168146201</v>
+        <v>1888.599083767239</v>
       </c>
       <c r="AB3" t="n">
-        <v>2275.496919488227</v>
+        <v>2584.064585521544</v>
       </c>
       <c r="AC3" t="n">
-        <v>2058.326687172255</v>
+        <v>2337.445088236791</v>
       </c>
       <c r="AD3" t="n">
-        <v>1663078.168146201</v>
+        <v>1888599.083767239</v>
       </c>
       <c r="AE3" t="n">
-        <v>2275496.919488227</v>
+        <v>2584064.585521544</v>
       </c>
       <c r="AF3" t="n">
         <v>4.818337410338313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.14166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2058326.687172255</v>
+        <v>2337445.088236792</v>
       </c>
     </row>
     <row r="4">
@@ -11145,28 +11145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1651.698701491515</v>
+        <v>1886.619539451343</v>
       </c>
       <c r="AB4" t="n">
-        <v>2259.927031184649</v>
+        <v>2581.356085657203</v>
       </c>
       <c r="AC4" t="n">
-        <v>2044.242767155895</v>
+        <v>2334.9950837981</v>
       </c>
       <c r="AD4" t="n">
-        <v>1651698.701491515</v>
+        <v>1886619.539451343</v>
       </c>
       <c r="AE4" t="n">
-        <v>2259927.031184649</v>
+        <v>2581356.085657204</v>
       </c>
       <c r="AF4" t="n">
         <v>4.835781329009071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.97083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2044242.767155895</v>
+        <v>2334995.0837981</v>
       </c>
     </row>
   </sheetData>
@@ -19831,28 +19831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1925.456508913372</v>
+        <v>2185.955265770076</v>
       </c>
       <c r="AB2" t="n">
-        <v>2634.494540641322</v>
+        <v>2990.920432166722</v>
       </c>
       <c r="AC2" t="n">
-        <v>2383.062079218824</v>
+        <v>2705.471183903921</v>
       </c>
       <c r="AD2" t="n">
-        <v>1925456.508913372</v>
+        <v>2185955.265770075</v>
       </c>
       <c r="AE2" t="n">
-        <v>2634494.540641322</v>
+        <v>2990920.432166722</v>
       </c>
       <c r="AF2" t="n">
         <v>4.73839569614961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.83750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>2383062.079218824</v>
+        <v>2705471.183903921</v>
       </c>
     </row>
     <row r="3">
@@ -19937,28 +19937,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1601.161315625576</v>
+        <v>1843.013972228194</v>
       </c>
       <c r="AB3" t="n">
-        <v>2190.779550290761</v>
+        <v>2521.693024840635</v>
       </c>
       <c r="AC3" t="n">
-        <v>1981.69462478942</v>
+        <v>2281.026181768234</v>
       </c>
       <c r="AD3" t="n">
-        <v>1601161.315625576</v>
+        <v>1843013.972228194</v>
       </c>
       <c r="AE3" t="n">
-        <v>2190779.550290761</v>
+        <v>2521693.024840635</v>
       </c>
       <c r="AF3" t="n">
         <v>5.220806007333834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.85833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1981694.62478942</v>
+        <v>2281026.181768234</v>
       </c>
     </row>
   </sheetData>
@@ -20234,28 +20234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1604.277002371487</v>
+        <v>1868.656585066186</v>
       </c>
       <c r="AB2" t="n">
-        <v>2195.042570350915</v>
+        <v>2556.778378997814</v>
       </c>
       <c r="AC2" t="n">
-        <v>1985.55078819822</v>
+        <v>2312.763038967254</v>
       </c>
       <c r="AD2" t="n">
-        <v>1604277.002371487</v>
+        <v>1868656.585066186</v>
       </c>
       <c r="AE2" t="n">
-        <v>2195042.570350915</v>
+        <v>2556778.378997814</v>
       </c>
       <c r="AF2" t="n">
         <v>5.95361574072404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1985550.78819822</v>
+        <v>2312763.038967255</v>
       </c>
     </row>
   </sheetData>
@@ -20531,28 +20531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5359.207944209551</v>
+        <v>5763.096406218628</v>
       </c>
       <c r="AB2" t="n">
-        <v>7332.704740835924</v>
+        <v>7885.322752858163</v>
       </c>
       <c r="AC2" t="n">
-        <v>6632.881691886007</v>
+        <v>7132.758616445075</v>
       </c>
       <c r="AD2" t="n">
-        <v>5359207.944209551</v>
+        <v>5763096.406218627</v>
       </c>
       <c r="AE2" t="n">
-        <v>7332704.740835924</v>
+        <v>7885322.752858163</v>
       </c>
       <c r="AF2" t="n">
         <v>2.229226363015248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6632881.691886007</v>
+        <v>7132758.616445075</v>
       </c>
     </row>
     <row r="3">
@@ -20637,28 +20637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2623.072891644299</v>
+        <v>2882.723156607679</v>
       </c>
       <c r="AB3" t="n">
-        <v>3589.00405215668</v>
+        <v>3944.268999640835</v>
       </c>
       <c r="AC3" t="n">
-        <v>3246.474542617535</v>
+        <v>3567.833502131275</v>
       </c>
       <c r="AD3" t="n">
-        <v>2623072.891644299</v>
+        <v>2882723.156607679</v>
       </c>
       <c r="AE3" t="n">
-        <v>3589004.05215668</v>
+        <v>3944268.999640835</v>
       </c>
       <c r="AF3" t="n">
         <v>3.393643723755116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.40833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3246474.542617535</v>
+        <v>3567833.502131275</v>
       </c>
     </row>
     <row r="4">
@@ -20743,28 +20743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2112.68060520928</v>
+        <v>2343.571049822495</v>
       </c>
       <c r="AB4" t="n">
-        <v>2890.662808937567</v>
+        <v>3206.577301425065</v>
       </c>
       <c r="AC4" t="n">
-        <v>2614.782007523299</v>
+        <v>2900.546064236443</v>
       </c>
       <c r="AD4" t="n">
-        <v>2112680.60520928</v>
+        <v>2343571.049822495</v>
       </c>
       <c r="AE4" t="n">
-        <v>2890662.808937567</v>
+        <v>3206577.301425065</v>
       </c>
       <c r="AF4" t="n">
         <v>3.814260678493798e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.5125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2614782.007523299</v>
+        <v>2900546.064236443</v>
       </c>
     </row>
     <row r="5">
@@ -20849,28 +20849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1860.999126503629</v>
+        <v>2091.787074860499</v>
       </c>
       <c r="AB5" t="n">
-        <v>2546.301106369293</v>
+        <v>2862.07535895686</v>
       </c>
       <c r="AC5" t="n">
-        <v>2303.285702533456</v>
+        <v>2588.922903646012</v>
       </c>
       <c r="AD5" t="n">
-        <v>1860999.126503628</v>
+        <v>2091787.074860499</v>
       </c>
       <c r="AE5" t="n">
-        <v>2546301.106369293</v>
+        <v>2862075.35895686</v>
       </c>
       <c r="AF5" t="n">
         <v>4.029571322336246e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.975</v>
       </c>
       <c r="AH5" t="n">
-        <v>2303285.702533456</v>
+        <v>2588922.903646012</v>
       </c>
     </row>
     <row r="6">
@@ -20955,28 +20955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1830.140134697652</v>
+        <v>2051.375978699866</v>
       </c>
       <c r="AB6" t="n">
-        <v>2504.078472377721</v>
+        <v>2806.783114378145</v>
       </c>
       <c r="AC6" t="n">
-        <v>2265.092737470199</v>
+        <v>2538.907673286737</v>
       </c>
       <c r="AD6" t="n">
-        <v>1830140.134697651</v>
+        <v>2051375.978699866</v>
       </c>
       <c r="AE6" t="n">
-        <v>2504078.472377721</v>
+        <v>2806783.114378144</v>
       </c>
       <c r="AF6" t="n">
         <v>4.063934031151506e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.59583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2265092.737470199</v>
+        <v>2538907.673286736</v>
       </c>
     </row>
     <row r="7">
@@ -21061,28 +21061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1837.427920803804</v>
+        <v>2058.663764806019</v>
       </c>
       <c r="AB7" t="n">
-        <v>2514.04994284259</v>
+        <v>2816.754584843015</v>
       </c>
       <c r="AC7" t="n">
-        <v>2274.112544788949</v>
+        <v>2547.927480605486</v>
       </c>
       <c r="AD7" t="n">
-        <v>1837427.920803804</v>
+        <v>2058663.764806019</v>
       </c>
       <c r="AE7" t="n">
-        <v>2514049.94284259</v>
+        <v>2816754.584843015</v>
       </c>
       <c r="AF7" t="n">
         <v>4.063934031151506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.59583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2274112.544788949</v>
+        <v>2547927.480605486</v>
       </c>
     </row>
   </sheetData>
@@ -21358,28 +21358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8551.608199529461</v>
+        <v>9067.496963881216</v>
       </c>
       <c r="AB2" t="n">
-        <v>11700.68760892424</v>
+        <v>12406.54937571635</v>
       </c>
       <c r="AC2" t="n">
-        <v>10583.99040554627</v>
+        <v>11222.48571599893</v>
       </c>
       <c r="AD2" t="n">
-        <v>8551608.199529462</v>
+        <v>9067496.963881217</v>
       </c>
       <c r="AE2" t="n">
-        <v>11700687.60892424</v>
+        <v>12406549.37571635</v>
       </c>
       <c r="AF2" t="n">
         <v>1.610278065316982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>102</v>
+        <v>101.7083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10583990.40554627</v>
+        <v>11222485.71599893</v>
       </c>
     </row>
     <row r="3">
@@ -21464,28 +21464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3365.590216971802</v>
+        <v>3657.544430115335</v>
       </c>
       <c r="AB3" t="n">
-        <v>4604.949014222309</v>
+        <v>5004.413648756165</v>
       </c>
       <c r="AC3" t="n">
-        <v>4165.459143391292</v>
+        <v>4526.799433857356</v>
       </c>
       <c r="AD3" t="n">
-        <v>3365590.216971803</v>
+        <v>3657544.430115335</v>
       </c>
       <c r="AE3" t="n">
-        <v>4604949.014222309</v>
+        <v>5004413.648756164</v>
       </c>
       <c r="AF3" t="n">
         <v>2.802756378758945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.42916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4165459.143391292</v>
+        <v>4526799.433857356</v>
       </c>
     </row>
     <row r="4">
@@ -21570,28 +21570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2628.374368336766</v>
+        <v>2881.484751534943</v>
       </c>
       <c r="AB4" t="n">
-        <v>3596.257766451958</v>
+        <v>3942.574559185744</v>
       </c>
       <c r="AC4" t="n">
-        <v>3253.035972601123</v>
+        <v>3566.300776695054</v>
       </c>
       <c r="AD4" t="n">
-        <v>2628374.368336766</v>
+        <v>2881484.751534943</v>
       </c>
       <c r="AE4" t="n">
-        <v>3596257.766451958</v>
+        <v>3942574.559185743</v>
       </c>
       <c r="AF4" t="n">
         <v>3.24178020081388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.51666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3253035.972601123</v>
+        <v>3566300.776695054</v>
       </c>
     </row>
     <row r="5">
@@ -21676,28 +21676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2306.607242427364</v>
+        <v>2540.177648231918</v>
       </c>
       <c r="AB5" t="n">
-        <v>3156.001789418953</v>
+        <v>3475.583123039818</v>
       </c>
       <c r="AC5" t="n">
-        <v>2854.797408113021</v>
+        <v>3143.878347788316</v>
       </c>
       <c r="AD5" t="n">
-        <v>2306607.242427364</v>
+        <v>2540177.648231918</v>
       </c>
       <c r="AE5" t="n">
-        <v>3156001.789418953</v>
+        <v>3475583.123039817</v>
       </c>
       <c r="AF5" t="n">
         <v>3.478782317822946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.075</v>
       </c>
       <c r="AH5" t="n">
-        <v>2854797.40811302</v>
+        <v>3143878.347788316</v>
       </c>
     </row>
     <row r="6">
@@ -21782,28 +21782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2106.263185883412</v>
+        <v>2330.097262895007</v>
       </c>
       <c r="AB6" t="n">
-        <v>2881.882212699355</v>
+        <v>3188.141871729348</v>
       </c>
       <c r="AC6" t="n">
-        <v>2606.839419066417</v>
+        <v>2883.870086076598</v>
       </c>
       <c r="AD6" t="n">
-        <v>2106263.185883412</v>
+        <v>2330097.262895007</v>
       </c>
       <c r="AE6" t="n">
-        <v>2881882.212699355</v>
+        <v>3188141.871729348</v>
       </c>
       <c r="AF6" t="n">
         <v>3.626957770745694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.15416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2606839.419066417</v>
+        <v>2883870.086076599</v>
       </c>
     </row>
     <row r="7">
@@ -21888,28 +21888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1976.21722329308</v>
+        <v>2190.349136930493</v>
       </c>
       <c r="AB7" t="n">
-        <v>2703.947589460306</v>
+        <v>2996.932320532321</v>
       </c>
       <c r="AC7" t="n">
-        <v>2445.886626536491</v>
+        <v>2710.909306081645</v>
       </c>
       <c r="AD7" t="n">
-        <v>1976217.22329308</v>
+        <v>2190349.136930493</v>
       </c>
       <c r="AE7" t="n">
-        <v>2703947.589460306</v>
+        <v>2996932.320532321</v>
       </c>
       <c r="AF7" t="n">
         <v>3.715391396495346e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.07916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2445886.626536491</v>
+        <v>2710909.306081645</v>
       </c>
     </row>
     <row r="8">
@@ -21994,28 +21994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1958.096497373449</v>
+        <v>2181.963728773966</v>
       </c>
       <c r="AB8" t="n">
-        <v>2679.154012827061</v>
+        <v>2985.459035154461</v>
       </c>
       <c r="AC8" t="n">
-        <v>2423.459314059119</v>
+        <v>2700.531014957391</v>
       </c>
       <c r="AD8" t="n">
-        <v>1958096.497373449</v>
+        <v>2181963.728773966</v>
       </c>
       <c r="AE8" t="n">
-        <v>2679154.012827061</v>
+        <v>2985459.035154461</v>
       </c>
       <c r="AF8" t="n">
         <v>3.725217354911974e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.96250000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>2423459.314059119</v>
+        <v>2700531.014957391</v>
       </c>
     </row>
   </sheetData>
@@ -22291,28 +22291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1705.242424724854</v>
+        <v>2003.120028303694</v>
       </c>
       <c r="AB2" t="n">
-        <v>2333.187915494857</v>
+        <v>2740.757194143821</v>
       </c>
       <c r="AC2" t="n">
-        <v>2110.511735489834</v>
+        <v>2479.183174211616</v>
       </c>
       <c r="AD2" t="n">
-        <v>1705242.424724854</v>
+        <v>2003120.028303694</v>
       </c>
       <c r="AE2" t="n">
-        <v>2333187.915494857</v>
+        <v>2740757.194143821</v>
       </c>
       <c r="AF2" t="n">
         <v>6.09798518030661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>2110511.735489834</v>
+        <v>2479183.174211616</v>
       </c>
     </row>
   </sheetData>
@@ -22588,28 +22588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2975.040912308254</v>
+        <v>3277.118878618234</v>
       </c>
       <c r="AB2" t="n">
-        <v>4070.582225762309</v>
+        <v>4483.898626006967</v>
       </c>
       <c r="AC2" t="n">
-        <v>3682.091571233435</v>
+        <v>4055.961634331939</v>
       </c>
       <c r="AD2" t="n">
-        <v>2975040.912308254</v>
+        <v>3277118.878618234</v>
       </c>
       <c r="AE2" t="n">
-        <v>4070582.225762309</v>
+        <v>4483898.626006966</v>
       </c>
       <c r="AF2" t="n">
         <v>3.435032243281252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.05416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3682091.571233436</v>
+        <v>4055961.634331939</v>
       </c>
     </row>
     <row r="3">
@@ -22694,28 +22694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1774.647407215226</v>
+        <v>2010.656772890527</v>
       </c>
       <c r="AB3" t="n">
-        <v>2428.150874469912</v>
+        <v>2751.069300585231</v>
       </c>
       <c r="AC3" t="n">
-        <v>2196.411562941659</v>
+        <v>2488.51110768739</v>
       </c>
       <c r="AD3" t="n">
-        <v>1774647.407215226</v>
+        <v>2010656.772890527</v>
       </c>
       <c r="AE3" t="n">
-        <v>2428150.874469912</v>
+        <v>2751069.300585231</v>
       </c>
       <c r="AF3" t="n">
         <v>4.549546336742965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.60833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2196411.562941659</v>
+        <v>2488511.10768739</v>
       </c>
     </row>
     <row r="4">
@@ -22800,28 +22800,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1681.387515201939</v>
+        <v>1907.886453209022</v>
       </c>
       <c r="AB4" t="n">
-        <v>2300.548575881272</v>
+        <v>2610.454415290478</v>
       </c>
       <c r="AC4" t="n">
-        <v>2080.987448639368</v>
+        <v>2361.316309690937</v>
       </c>
       <c r="AD4" t="n">
-        <v>1681387.515201939</v>
+        <v>1907886.453209022</v>
       </c>
       <c r="AE4" t="n">
-        <v>2300548.575881273</v>
+        <v>2610454.415290478</v>
       </c>
       <c r="AF4" t="n">
         <v>4.673785547721206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.34583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2080987.448639368</v>
+        <v>2361316.309690936</v>
       </c>
     </row>
   </sheetData>
@@ -23097,28 +23097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4256.821136963354</v>
+        <v>4619.739342965951</v>
       </c>
       <c r="AB2" t="n">
-        <v>5824.370477288061</v>
+        <v>6320.931177562104</v>
       </c>
       <c r="AC2" t="n">
-        <v>5268.500733490774</v>
+        <v>5717.670377457964</v>
       </c>
       <c r="AD2" t="n">
-        <v>4256821.136963353</v>
+        <v>4619739.34296595</v>
       </c>
       <c r="AE2" t="n">
-        <v>5824370.477288061</v>
+        <v>6320931.177562104</v>
       </c>
       <c r="AF2" t="n">
         <v>2.632374785954667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5268500.733490774</v>
+        <v>5717670.377457963</v>
       </c>
     </row>
     <row r="3">
@@ -23203,28 +23203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2287.616392410144</v>
+        <v>2535.943553860836</v>
       </c>
       <c r="AB3" t="n">
-        <v>3130.017670608218</v>
+        <v>3469.789848326242</v>
       </c>
       <c r="AC3" t="n">
-        <v>2831.293177132643</v>
+        <v>3138.637975082493</v>
       </c>
       <c r="AD3" t="n">
-        <v>2287616.392410144</v>
+        <v>2535943.553860836</v>
       </c>
       <c r="AE3" t="n">
-        <v>3130017.670608218</v>
+        <v>3469789.848326243</v>
       </c>
       <c r="AF3" t="n">
         <v>3.775215184499079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.0875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2831293.177132643</v>
+        <v>3138637.975082493</v>
       </c>
     </row>
     <row r="4">
@@ -23309,28 +23309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1855.191618368695</v>
+        <v>2074.8881013908</v>
       </c>
       <c r="AB4" t="n">
-        <v>2538.3550175299</v>
+        <v>2838.953437925526</v>
       </c>
       <c r="AC4" t="n">
-        <v>2296.097977260489</v>
+        <v>2568.007706306089</v>
       </c>
       <c r="AD4" t="n">
-        <v>1855191.618368695</v>
+        <v>2074888.1013908</v>
       </c>
       <c r="AE4" t="n">
-        <v>2538355.0175299</v>
+        <v>2838953.437925526</v>
       </c>
       <c r="AF4" t="n">
         <v>4.189026167204103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.03749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>2296097.977260489</v>
+        <v>2568007.706306089</v>
       </c>
     </row>
     <row r="5">
@@ -23415,28 +23415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1772.476432509842</v>
+        <v>1992.138750113167</v>
       </c>
       <c r="AB5" t="n">
-        <v>2425.180451101362</v>
+        <v>2725.73212486374</v>
       </c>
       <c r="AC5" t="n">
-        <v>2193.724632610388</v>
+        <v>2465.592076455808</v>
       </c>
       <c r="AD5" t="n">
-        <v>1772476.432509842</v>
+        <v>1992138.750113167</v>
       </c>
       <c r="AE5" t="n">
-        <v>2425180.451101362</v>
+        <v>2725732.12486374</v>
       </c>
       <c r="AF5" t="n">
         <v>4.273269566367766e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.12916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2193724.632610388</v>
+        <v>2465592.076455808</v>
       </c>
     </row>
     <row r="6">
@@ -23521,28 +23521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1779.927294325955</v>
+        <v>1999.58961192928</v>
       </c>
       <c r="AB6" t="n">
-        <v>2435.375048946992</v>
+        <v>2735.92672270937</v>
       </c>
       <c r="AC6" t="n">
-        <v>2202.946272345839</v>
+        <v>2474.81371619126</v>
       </c>
       <c r="AD6" t="n">
-        <v>1779927.294325955</v>
+        <v>1999589.61192928</v>
       </c>
       <c r="AE6" t="n">
-        <v>2435375.048946992</v>
+        <v>2735926.72270937</v>
       </c>
       <c r="AF6" t="n">
         <v>4.273269566367766e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.13333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2202946.272345839</v>
+        <v>2474813.71619126</v>
       </c>
     </row>
   </sheetData>
